--- a/ANA_2019/classes/href.xlsx
+++ b/ANA_2019/classes/href.xlsx
@@ -20,7 +20,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+  <si>
+    <t>https://ascii.jp/teamleaders/</t>
+  </si>
+  <si>
+    <t>ASCII Team Leaders</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/biz/</t>
+  </si>
+  <si>
+    <t>ASCII.jp － ビジネス</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/958/1958210/</t>
+  </si>
+  <si>
+    <t>ASCII.jp：日立IoT「Lumada」でエレベーター／ビル設備の稼働可視化や ...</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/929/1929355/</t>
+  </si>
+  <si>
+    <t>ASCII.jp：自動運転に5G通信が絶対必要なワケ｜夢の技術！ 自動運転 ...</t>
+  </si>
   <si>
     <t>null</t>
   </si>
@@ -387,159 +411,159 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
